--- a/docs/artifacts/rules/information-business-camilla.xlsx
+++ b/docs/artifacts/rules/information-business-camilla.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndersAlbert\Projects\internal\neat\docs\artifacts\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B31367D-7BBB-45FD-89F3-B3F6200AB00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C55A251-9D9A-4862-BD2D-CF10D2AFFCF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41172" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="203">
   <si>
     <t>role</t>
   </si>
@@ -1146,7 +1146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
@@ -3187,9 +3187,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29:E29"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3482,6 +3482,9 @@
       <c r="A28" t="s">
         <v>91</v>
       </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
       <c r="E28" t="s">
         <v>199</v>
       </c>
@@ -3489,6 +3492,9 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>99</v>
+      </c>
+      <c r="D29" t="s">
+        <v>56</v>
       </c>
       <c r="E29" t="s">
         <v>200</v>

--- a/docs/artifacts/rules/information-business-camilla.xlsx
+++ b/docs/artifacts/rules/information-business-camilla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndersAlbert\Projects\internal\neat\docs\artifacts\rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikola/Repos/neat/docs/artifacts/rules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C55A251-9D9A-4862-BD2D-CF10D2AFFCF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B715F4AD-6309-FB4A-BAFE-776649211C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="203">
   <si>
     <t>role</t>
   </si>
@@ -45,9 +45,6 @@
     <t>complete</t>
   </si>
   <si>
-    <t>prefix</t>
-  </si>
-  <si>
     <t>sp_trading</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>http://purl.org/neat/sp_trading/</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>power_forecast</t>
   </si>
   <si>
@@ -633,7 +627,13 @@
     <t>power</t>
   </si>
   <si>
-    <t>https://purl.orgl/neat/power/</t>
+    <t>space</t>
+  </si>
+  <si>
+    <t>external_id</t>
+  </si>
+  <si>
+    <t>power2consumer</t>
   </si>
 </sst>
 </file>
@@ -655,16 +655,19 @@
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1032,17 +1035,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1050,7 +1053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1058,7 +1061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1066,75 +1069,75 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1151,17 +1154,17 @@
       <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" customWidth="1"/>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
     <col min="2" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1176,58 +1179,58 @@
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
     </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -1237,20 +1240,20 @@
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -1260,7 +1263,7 @@
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1280,19 +1283,19 @@
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1301,43 +1304,43 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1357,20 +1360,20 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" customWidth="1"/>
+    <col min="5" max="5" width="25.5" customWidth="1"/>
     <col min="6" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="60.44140625" customWidth="1"/>
+    <col min="9" max="9" width="60.5" customWidth="1"/>
     <col min="10" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1385,58 +1388,58 @@
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
     </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -1446,14 +1449,14 @@
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1468,17 +1471,17 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -1488,14 +1491,14 @@
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1510,17 +1513,17 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
@@ -1530,14 +1533,14 @@
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1552,17 +1555,17 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -1572,24 +1575,24 @@
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -1599,24 +1602,24 @@
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -1626,24 +1629,24 @@
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -1653,24 +1656,24 @@
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -1680,14 +1683,14 @@
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1702,17 +1705,17 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
@@ -1722,24 +1725,24 @@
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -1749,24 +1752,24 @@
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
@@ -1776,14 +1779,14 @@
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1798,17 +1801,17 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
@@ -1818,24 +1821,24 @@
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -1845,24 +1848,24 @@
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
@@ -1872,24 +1875,24 @@
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
@@ -1899,24 +1902,24 @@
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
@@ -1926,14 +1929,14 @@
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1948,17 +1951,17 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F25" s="3">
         <v>1</v>
@@ -1968,14 +1971,14 @@
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1990,17 +1993,17 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
@@ -2008,24 +2011,24 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
@@ -2035,24 +2038,24 @@
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -2062,14 +2065,14 @@
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2084,17 +2087,17 @@
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
@@ -2102,14 +2105,14 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2124,17 +2127,17 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
@@ -2144,24 +2147,24 @@
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F34" s="4">
         <v>1</v>
@@ -2171,14 +2174,14 @@
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2193,17 +2196,17 @@
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
@@ -2211,14 +2214,14 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2233,17 +2236,17 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F38" s="4">
         <v>1</v>
@@ -2253,24 +2256,24 @@
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F39" s="4">
         <v>0</v>
@@ -2280,24 +2283,24 @@
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F40" s="4">
         <v>0</v>
@@ -2307,24 +2310,24 @@
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F41" s="4">
         <v>0</v>
@@ -2334,14 +2337,14 @@
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2356,17 +2359,17 @@
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2374,24 +2377,24 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -2399,24 +2402,24 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2424,24 +2427,24 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -2451,24 +2454,24 @@
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -2478,24 +2481,24 @@
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F48" s="3">
         <v>1</v>
@@ -2505,24 +2508,24 @@
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -2532,24 +2535,24 @@
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F50" s="3">
         <v>1</v>
@@ -2559,24 +2562,24 @@
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
@@ -2586,24 +2589,24 @@
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F52" s="3">
         <v>1</v>
@@ -2613,14 +2616,14 @@
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2635,17 +2638,17 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F54" s="4">
         <v>0</v>
@@ -2655,24 +2658,24 @@
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F55" s="4">
         <v>1</v>
@@ -2682,24 +2685,24 @@
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F56" s="4">
         <v>1</v>
@@ -2709,24 +2712,24 @@
       </c>
       <c r="H56" s="4"/>
       <c r="I56" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F57" s="4">
         <v>1</v>
@@ -2736,24 +2739,24 @@
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F58" s="4">
         <v>1</v>
@@ -2763,24 +2766,24 @@
       </c>
       <c r="H58" s="4"/>
       <c r="I58" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F59" s="4">
         <v>0</v>
@@ -2788,14 +2791,14 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2810,17 +2813,17 @@
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F61" s="3">
         <v>1</v>
@@ -2830,14 +2833,14 @@
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2852,17 +2855,17 @@
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F63" s="4">
         <v>0</v>
@@ -2872,24 +2875,24 @@
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F64" s="4">
         <v>0</v>
@@ -2899,14 +2902,14 @@
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2921,17 +2924,17 @@
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
@@ -2939,24 +2942,24 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F67" s="3">
         <v>0</v>
@@ -2966,24 +2969,24 @@
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F68" s="3">
         <v>0</v>
@@ -2993,24 +2996,24 @@
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F69" s="3">
         <v>0</v>
@@ -3018,14 +3021,14 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -3040,17 +3043,17 @@
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F71" s="4">
         <v>0</v>
@@ -3060,24 +3063,24 @@
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F72" s="4">
         <v>1</v>
@@ -3087,24 +3090,24 @@
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F73" s="4">
         <v>0</v>
@@ -3114,24 +3117,24 @@
       </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F74" s="4">
         <v>0</v>
@@ -3141,24 +3144,24 @@
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F75" s="4">
         <v>1</v>
@@ -3168,7 +3171,7 @@
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
@@ -3187,24 +3190,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="36.44140625" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
-    <col min="5" max="5" width="38.44140625" customWidth="1"/>
+    <col min="3" max="3" width="36.5" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="38.5" customWidth="1"/>
     <col min="6" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -3213,291 +3216,291 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>93</v>
       </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" t="s">
         <v>40</v>
       </c>
-      <c r="E5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="E28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>97</v>
       </c>
-      <c r="D17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3510,17 +3513,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="36.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3528,15 +3533,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3544,83 +3549,73 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
         <v>112</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="B10" s="5">
         <v>45435.537907881953</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="5">
         <v>45435.537907881953</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
